--- a/src/excel/UsersData.xlsx
+++ b/src/excel/UsersData.xlsx
@@ -517,16 +517,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -549,16 +549,16 @@
         <v>15</v>
       </c>
       <c r="G3" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/UsersData.xlsx
+++ b/src/excel/UsersData.xlsx
@@ -520,13 +520,13 @@
         <v>57</v>
       </c>
       <c r="H2" s="2">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2">
         <v>22</v>
       </c>
       <c r="J2" s="2">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -549,16 +549,16 @@
         <v>15</v>
       </c>
       <c r="G3" s="2">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/UsersData.xlsx
+++ b/src/excel/UsersData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -58,22 +58,25 @@
     <t>owner</t>
   </si>
   <si>
+    <t>2389897329</t>
+  </si>
+  <si>
+    <t>657ff2cf797f89b6cc1c0fdf</t>
+  </si>
+  <si>
+    <t>12/18/2023</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>2389897324</t>
-  </si>
-  <si>
-    <t>657ff2cf797f89b6cc1c0fdf</t>
-  </si>
-  <si>
-    <t>12/18/2023</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>admin@gmail.com</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -517,16 +520,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -546,19 +549,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel/UsersData.xlsx
+++ b/src/excel/UsersData.xlsx
@@ -520,16 +520,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -555,13 +555,13 @@
         <v>93</v>
       </c>
       <c r="H3" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>37</v>
       </c>
       <c r="J3" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
